--- a/examples/javascript/svg/DEAGELForecast/DEAGELForecast/Data/forecast.xlsx
+++ b/examples/javascript/svg/DEAGELForecast/DEAGELForecast/Data/forecast.xlsx
@@ -16,22 +16,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>land US</t>
-  </si>
-  <si>
-    <t>Forecast</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/United-States-of-America_c0001.aspx</t>
+  </si>
+  <si>
+    <t>land us</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/China_c0044.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Canada_c0038.aspx</t>
+  </si>
+  <si>
+    <t>land ca</t>
+  </si>
+  <si>
+    <t>land se</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Sweden_c0192.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Norway_c0153.aspx</t>
+  </si>
+  <si>
+    <t>land no</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Japan_c0103.aspx</t>
+  </si>
+  <si>
+    <t>Current2013Population as double</t>
+  </si>
+  <si>
+    <t>Forecast2025Population as double</t>
+  </si>
+  <si>
+    <t>land cn</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/France_c0072.aspx</t>
+  </si>
+  <si>
+    <t>land ru</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Russia_c0168.aspx</t>
+  </si>
+  <si>
+    <t>land br</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Brazil_c0029.aspx</t>
+  </si>
+  <si>
+    <t>land it</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Italy_c0101.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/India_c0095.aspx</t>
+  </si>
+  <si>
+    <t>land in</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Australia_c0013.aspx</t>
+  </si>
+  <si>
+    <t>land fr fx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Spain_c0187.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Mexico_c0135.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/South-Korea_c0110.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Indonesia_c0096.aspx</t>
+  </si>
+  <si>
+    <t>land coast jp</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/United-Kingdom_c0209.aspx</t>
+  </si>
+  <si>
+    <t>land coast id</t>
+  </si>
+  <si>
+    <t>land coast kr</t>
+  </si>
+  <si>
+    <t>land coast au</t>
+  </si>
+  <si>
+    <t>land tr</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Turkey_c0203.aspx</t>
+  </si>
+  <si>
+    <t>land be</t>
+  </si>
+  <si>
+    <t>land coast ne</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Netherlands_c0145.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Saudi-Arabia_c0176.aspx</t>
+  </si>
+  <si>
+    <t>land ch</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Switzerland_c0193.aspx</t>
+  </si>
+  <si>
+    <t>land pl</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Poland_c0162.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Belgium_c0021.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Taiwan_c0196.aspx</t>
+  </si>
+  <si>
+    <t>land coast tw</t>
+  </si>
+  <si>
+    <t>land ar</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Argentina_c0010.aspx</t>
+  </si>
+  <si>
+    <t>land au</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Austria_c0014.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Iran_c0097.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Thailand_c0198.aspx</t>
+  </si>
+  <si>
+    <t>land th</t>
+  </si>
+  <si>
+    <t>land coast ae</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/United-Arab-Emirates_c0208.aspx</t>
+  </si>
+  <si>
+    <t>land sa</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Pakistan_c0155.aspx</t>
+  </si>
+  <si>
+    <t>land pk</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Nigeria_c0151.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Bangladesh_c0018.aspx</t>
+  </si>
+  <si>
+    <t>land coast bd</t>
+  </si>
+  <si>
+    <t>land coast ph</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Philippines_c0161.aspx</t>
+  </si>
+  <si>
+    <t>land et</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Ethiopia_c0067.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Vietnam_c0156.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Egypt_c0062.aspx</t>
+  </si>
+  <si>
+    <t>lang eg</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Democratic-Republic-of-Congo_c0047.aspx</t>
+  </si>
+  <si>
+    <t>land co</t>
+  </si>
+  <si>
+    <t>land cd</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Burma_c0034.aspx</t>
+  </si>
+  <si>
+    <t>land coast mm</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/South-Africa_c0186.aspx</t>
+  </si>
+  <si>
+    <t>land za</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Tanzania_c0197.aspx</t>
+  </si>
+  <si>
+    <t>land coast tz</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Colombia_c0045.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Ukraine_c0207.aspx</t>
+  </si>
+  <si>
+    <t>land uk</t>
+  </si>
+  <si>
+    <t>land coast gb</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Kenya_c0107.aspx</t>
+  </si>
+  <si>
+    <t>land ke</t>
+  </si>
+  <si>
+    <t>land mx</t>
+  </si>
+  <si>
+    <t>land es</t>
+  </si>
+  <si>
+    <t>land vn</t>
+  </si>
+  <si>
+    <t>land ng</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Morocco_c0140.aspx</t>
+  </si>
+  <si>
+    <t>land ma</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Uganda_c0206.aspx</t>
+  </si>
+  <si>
+    <t>land ug</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Sudan_c0189.aspx</t>
+  </si>
+  <si>
+    <t>land su</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Algeria_c0004.aspx</t>
+  </si>
+  <si>
+    <t>land dz</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Afghanistan_c0002.aspx</t>
+  </si>
+  <si>
+    <t>land af</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Nepal_c0144.aspx</t>
+  </si>
+  <si>
+    <t>land np</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Peru_c0160.aspx</t>
+  </si>
+  <si>
+    <t>land pe</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Malaysia_c0125.aspx</t>
+  </si>
+  <si>
+    <t>land my</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Uzbekistan_c0211.aspx</t>
+  </si>
+  <si>
+    <t>land uz</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Venezuela_c0213.aspx</t>
+  </si>
+  <si>
+    <t>land ve</t>
+  </si>
+  <si>
+    <t>land ye</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Yemen_c0205.aspx</t>
+  </si>
+  <si>
+    <t>http://www.deagel.com/country/Ghana_c0079.aspx</t>
+  </si>
+  <si>
+    <t>land gh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,14 +395,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,104 +705,841 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B7">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1400</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1.9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>221</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>1400</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B12">
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>89</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>9.1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>2.8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>6.4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>193</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>210</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="C32">
+        <v>160</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>187</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D34" r:id="rId32"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>
 
